--- a/documentation/Activity Relationship table.xlsx
+++ b/documentation/Activity Relationship table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tud365-my.sharepoint.com/personal/serenst_tudelft_nl/Documents/spatial computing architecture/Computational-Design/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tud365-my.sharepoint.com/personal/serenst_tudelft_nl/Documents/spatial computing architecture/CDS-Project/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="386" documentId="8_{2C3C803F-6009-4E79-96C0-82548CC543AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DC5EECA-730C-4B7C-AB23-B01E2FBD4957}"/>
+  <xr:revisionPtr revIDLastSave="389" documentId="8_{2C3C803F-6009-4E79-96C0-82548CC543AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32678279-47F1-40B7-AA26-FB88290DB600}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{69C57B10-3CF6-41E4-B6AD-BBD6308DA5D7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="20">
   <si>
     <t>Housing entree</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>self</t>
+  </si>
+  <si>
+    <t>wfef</t>
   </si>
 </sst>
 </file>
@@ -447,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D40333D7-3B21-4950-BD3A-61315E73F84F}">
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1161,88 +1164,87 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" t="str">
-        <f>CONCATENATE(B2,",",C2,",",D2,",",E2,",",F2,",",G2,",",H2,",",I2,",",J2,",",K2,",",L2,",",M2,",",N2,",",O2)</f>
-        <v>self,5,5,4,5,5,3,2,3,1,1,2,2,1</v>
-      </c>
-    </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" t="str">
-        <f>CONCATENATE(B3,",",C3,",",D3,",",E3,",",F3,",",G3,",",H3,",",I3,",",J3,",",K3,",",L3,",",M3,",",N3,",",O3)</f>
+        <f t="shared" ref="B20:B33" si="0">CONCATENATE(B3,",",C3,",",D3,",",E3,",",F3,",",G3,",",H3,",",I3,",",J3,",",K3,",",L3,",",M3,",",N3,",",O3)</f>
         <v>5,Self,3,4,3,3,3,2,1,2,1,2,3,2</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" t="str">
-        <f>CONCATENATE(B4,",",C4,",",D4,",",E4,",",F4,",",G4,",",H4,",",I4,",",J4,",",K4,",",L4,",",M4,",",N4,",",O4)</f>
+        <f t="shared" si="0"/>
         <v>5,3,Self,3,2,2,4,2,1,3,1,2,2,1</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" t="str">
-        <f>CONCATENATE(B5,",",C5,",",D5,",",E5,",",F5,",",G5,",",H5,",",I5,",",J5,",",K5,",",L5,",",M5,",",N5,",",O5)</f>
+        <f t="shared" si="0"/>
         <v>4,4,3,Self,4,3,1,1,1,1,1,1,2,1</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" t="str">
-        <f>CONCATENATE(B6,",",C6,",",D6,",",E6,",",F6,",",G6,",",H6,",",I6,",",J6,",",K6,",",L6,",",M6,",",N6,",",O6)</f>
+        <f t="shared" si="0"/>
         <v>5,3,2,4,Self,4,2,4,3,2,1,2,3,2</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" t="str">
-        <f>CONCATENATE(B7,",",C7,",",D7,",",E7,",",F7,",",G7,",",H7,",",I7,",",J7,",",K7,",",L7,",",M7,",",N7,",",O7)</f>
+        <f t="shared" si="0"/>
         <v>5,3,2,3,4,Self,2,4,4,2,1,2,3,2</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" t="str">
-        <f>CONCATENATE(B8,",",C8,",",D8,",",E8,",",F8,",",G8,",",H8,",",I8,",",J8,",",K8,",",L8,",",M8,",",N8,",",O8)</f>
+        <f t="shared" si="0"/>
         <v>3,3,4,1,2,2,Self,2,2,2,1,2,2,3</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" t="str">
-        <f>CONCATENATE(B9,",",C9,",",D9,",",E9,",",F9,",",G9,",",H9,",",I9,",",J9,",",K9,",",L9,",",M9,",",N9,",",O9)</f>
+        <f t="shared" si="0"/>
         <v>2,2,2,1,4,4,2,Self,4,3,5,3,2,4</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" t="str">
-        <f>CONCATENATE(B10,",",C10,",",D10,",",E10,",",F10,",",G10,",",H10,",",I10,",",J10,",",K10,",",L10,",",M10,",",N10,",",O10)</f>
+        <f t="shared" si="0"/>
         <v>3,1,1,1,3,4,2,4,Self,2,1,3,4,3</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" t="str">
-        <f>CONCATENATE(B11,",",C11,",",D11,",",E11,",",F11,",",G11,",",H11,",",I11,",",J11,",",K11,",",L11,",",M11,",",N11,",",O11)</f>
+        <f t="shared" si="0"/>
         <v>1,2,3,1,2,2,2,3,2,Self,3,3,3,3</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" t="str">
-        <f>CONCATENATE(B12,",",C12,",",D12,",",E12,",",F12,",",G12,",",H12,",",I12,",",J12,",",K12,",",L12,",",M12,",",N12,",",O12)</f>
+        <f t="shared" si="0"/>
         <v>1,1,1,1,1,1,1,5,1,3,Self,2,3,2</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" t="str">
-        <f>CONCATENATE(B13,",",C13,",",D13,",",E13,",",F13,",",G13,",",H13,",",I13,",",J13,",",K13,",",L13,",",M13,",",N13,",",O13)</f>
+        <f t="shared" si="0"/>
         <v>2,2,2,1,2,2,2,3,3,3,2,Self,3,4</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" t="str">
-        <f>CONCATENATE(B14,",",C14,",",D14,",",E14,",",F14,",",G14,",",H14,",",I14,",",J14,",",K14,",",L14,",",M14,",",N14,",",O14)</f>
+        <f t="shared" si="0"/>
         <v>2,3,2,2,3,3,2,2,4,3,3,3,Self,2</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" t="str">
-        <f>CONCATENATE(B15,",",C15,",",D15,",",E15,",",F15,",",G15,",",H15,",",I15,",",J15,",",K15,",",L15,",",M15,",",N15,",",O15)</f>
+        <f t="shared" si="0"/>
         <v>1,2,1,1,2,2,3,4,3,3,2,4,2,Self</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/Activity Relationship table.xlsx
+++ b/documentation/Activity Relationship table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tud365-my.sharepoint.com/personal/serenst_tudelft_nl/Documents/spatial computing architecture/CDS-Project/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="389" documentId="8_{2C3C803F-6009-4E79-96C0-82548CC543AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32678279-47F1-40B7-AA26-FB88290DB600}"/>
+  <xr:revisionPtr revIDLastSave="399" documentId="8_{2C3C803F-6009-4E79-96C0-82548CC543AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8662C54-0189-431A-BBC4-8D1B751D5F98}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{69C57B10-3CF6-41E4-B6AD-BBD6308DA5D7}"/>
   </bookViews>
@@ -71,9 +71,6 @@
     <t>gym</t>
   </si>
   <si>
-    <t>Outside</t>
-  </si>
-  <si>
     <t>Gym</t>
   </si>
   <si>
@@ -96,6 +93,9 @@
   </si>
   <si>
     <t>wfef</t>
+  </si>
+  <si>
+    <t>Atrium</t>
   </si>
 </sst>
 </file>
@@ -151,6 +151,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -453,7 +457,7 @@
   <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -482,7 +486,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
@@ -491,19 +495,19 @@
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -511,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -561,7 +565,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -594,7 +598,7 @@
         <v>2</v>
       </c>
       <c r="N3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O3">
         <v>2</v>
@@ -611,7 +615,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -641,7 +645,7 @@
         <v>2</v>
       </c>
       <c r="N4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -661,7 +665,7 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -711,7 +715,7 @@
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -735,7 +739,7 @@
         <v>2</v>
       </c>
       <c r="N6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O6">
         <v>2</v>
@@ -761,7 +765,7 @@
         <v>4</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -782,7 +786,7 @@
         <v>2</v>
       </c>
       <c r="N7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O7">
         <v>2</v>
@@ -811,7 +815,7 @@
         <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -861,7 +865,7 @@
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J9">
         <v>4</v>
@@ -911,7 +915,7 @@
         <v>4</v>
       </c>
       <c r="J10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -931,7 +935,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -961,7 +965,7 @@
         <v>2</v>
       </c>
       <c r="K11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L11">
         <v>3</v>
@@ -1011,7 +1015,7 @@
         <v>3</v>
       </c>
       <c r="L12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M12">
         <v>2</v>
@@ -1025,7 +1029,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -1061,7 +1065,7 @@
         <v>2</v>
       </c>
       <c r="M13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N13">
         <v>3</v>
@@ -1072,25 +1076,25 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1111,7 +1115,7 @@
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O14">
         <v>2</v>
@@ -1119,7 +1123,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1161,19 +1165,19 @@
         <v>2</v>
       </c>
       <c r="O15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" t="str">
-        <f t="shared" ref="B20:B33" si="0">CONCATENATE(B3,",",C3,",",D3,",",E3,",",F3,",",G3,",",H3,",",I3,",",J3,",",K3,",",L3,",",M3,",",N3,",",O3)</f>
-        <v>5,Self,3,4,3,3,3,2,1,2,1,2,3,2</v>
+        <f t="shared" ref="B21:B33" si="0">CONCATENATE(B3,",",C3,",",D3,",",E3,",",F3,",",G3,",",H3,",",I3,",",J3,",",K3,",",L3,",",M3,",",N3,",",O3)</f>
+        <v>5,Self,3,4,3,3,3,2,1,2,1,2,4,2</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>5,3,Self,3,2,2,4,2,1,3,1,2,2,1</v>
+        <v>5,3,Self,3,2,2,4,2,1,3,1,2,4,1</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.3">
@@ -1185,13 +1189,13 @@
     <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>5,3,2,4,Self,4,2,4,3,2,1,2,3,2</v>
+        <v>5,3,2,4,Self,4,2,4,3,2,1,2,4,2</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>5,3,2,3,4,Self,2,4,4,2,1,2,3,2</v>
+        <v>5,3,2,3,4,Self,2,4,4,2,1,2,4,2</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.3">
@@ -1233,7 +1237,7 @@
     <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v>2,3,2,2,3,3,2,2,4,3,3,3,Self,2</v>
+        <v>2,4,4,2,4,4,2,2,4,3,3,3,Self,2</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
@@ -1244,7 +1248,7 @@
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/Activity Relationship table.xlsx
+++ b/documentation/Activity Relationship table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tud365-my.sharepoint.com/personal/serenst_tudelft_nl/Documents/spatial computing architecture/CDS-Project/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="399" documentId="8_{2C3C803F-6009-4E79-96C0-82548CC543AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8662C54-0189-431A-BBC4-8D1B751D5F98}"/>
+  <xr:revisionPtr revIDLastSave="401" documentId="8_{2C3C803F-6009-4E79-96C0-82548CC543AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D2915D7-2F67-48D2-8145-84D9C81A132F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{69C57B10-3CF6-41E4-B6AD-BBD6308DA5D7}"/>
   </bookViews>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="20">
   <si>
-    <t>Housing entree</t>
-  </si>
-  <si>
     <t>Starter houses</t>
   </si>
   <si>
@@ -96,6 +93,9 @@
   </si>
   <si>
     <t>Atrium</t>
+  </si>
+  <si>
+    <t>Housing entrance</t>
   </si>
 </sst>
 </file>
@@ -457,7 +457,7 @@
   <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -468,54 +468,54 @@
   <sheetData>
     <row r="1" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -559,13 +559,13 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -615,7 +615,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -665,7 +665,7 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -715,7 +715,7 @@
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -747,7 +747,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -765,7 +765,7 @@
         <v>4</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -794,7 +794,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -815,7 +815,7 @@
         <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -841,7 +841,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -865,7 +865,7 @@
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J9">
         <v>4</v>
@@ -888,7 +888,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -915,7 +915,7 @@
         <v>4</v>
       </c>
       <c r="J10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -935,7 +935,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -965,7 +965,7 @@
         <v>2</v>
       </c>
       <c r="K11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L11">
         <v>3</v>
@@ -982,7 +982,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1015,7 +1015,7 @@
         <v>3</v>
       </c>
       <c r="L12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M12">
         <v>2</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -1065,7 +1065,7 @@
         <v>2</v>
       </c>
       <c r="M13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N13">
         <v>3</v>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -1115,7 +1115,7 @@
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O14">
         <v>2</v>
@@ -1123,7 +1123,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1165,7 +1165,7 @@
         <v>2</v>
       </c>
       <c r="O15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
@@ -1248,7 +1248,7 @@
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/Activity Relationship table.xlsx
+++ b/documentation/Activity Relationship table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tud365-my.sharepoint.com/personal/serenst_tudelft_nl/Documents/spatial computing architecture/CDS-Project/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="401" documentId="8_{2C3C803F-6009-4E79-96C0-82548CC543AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D2915D7-2F67-48D2-8145-84D9C81A132F}"/>
+  <xr:revisionPtr revIDLastSave="402" documentId="8_{2C3C803F-6009-4E79-96C0-82548CC543AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29F9D8C4-A709-4C06-8944-E60365C9E00D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{69C57B10-3CF6-41E4-B6AD-BBD6308DA5D7}"/>
   </bookViews>
@@ -456,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D40333D7-3B21-4950-BD3A-61315E73F84F}">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1170,13 +1170,13 @@
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" t="str">
-        <f t="shared" ref="B21:B33" si="0">CONCATENATE(B3,",",C3,",",D3,",",E3,",",F3,",",G3,",",H3,",",I3,",",J3,",",K3,",",L3,",",M3,",",N3,",",O3)</f>
+        <f>CONCATENATE(B3,",",C3,",",D3,",",E3,",",F3,",",G3,",",H3,",",I3,",",J3,",",K3,",",L3,",",M3,",",N3,",",O3)</f>
         <v>5,Self,3,4,3,3,3,2,1,2,1,2,4,2</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B21:B33" si="0">CONCATENATE(B4,",",C4,",",D4,",",E4,",",F4,",",G4,",",H4,",",I4,",",J4,",",K4,",",L4,",",M4,",",N4,",",O4)</f>
         <v>5,3,Self,3,2,2,4,2,1,3,1,2,4,1</v>
       </c>
     </row>

--- a/documentation/Activity Relationship table.xlsx
+++ b/documentation/Activity Relationship table.xlsx
@@ -456,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D40333D7-3B21-4950-BD3A-61315E73F84F}">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:C33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1176,7 +1176,7 @@
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" t="str">
-        <f t="shared" ref="B21:B33" si="0">CONCATENATE(B4,",",C4,",",D4,",",E4,",",F4,",",G4,",",H4,",",I4,",",J4,",",K4,",",L4,",",M4,",",N4,",",O4)</f>
+        <f t="shared" ref="B22:B33" si="0">CONCATENATE(B4,",",C4,",",D4,",",E4,",",F4,",",G4,",",H4,",",I4,",",J4,",",K4,",",L4,",",M4,",",N4,",",O4)</f>
         <v>5,3,Self,3,2,2,4,2,1,3,1,2,4,1</v>
       </c>
     </row>

--- a/documentation/Activity Relationship table.xlsx
+++ b/documentation/Activity Relationship table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tud365-my.sharepoint.com/personal/serenst_tudelft_nl/Documents/spatial computing architecture/CDS-Project/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="402" documentId="8_{2C3C803F-6009-4E79-96C0-82548CC543AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29F9D8C4-A709-4C06-8944-E60365C9E00D}"/>
+  <xr:revisionPtr revIDLastSave="404" documentId="8_{2C3C803F-6009-4E79-96C0-82548CC543AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4223147-1ABA-4809-BFAE-8A4E657B6358}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{69C57B10-3CF6-41E4-B6AD-BBD6308DA5D7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
   <si>
     <t>Starter houses</t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>Housing entrance</t>
+  </si>
+  <si>
+    <t>living room</t>
+  </si>
+  <si>
+    <t>technische ruimte</t>
   </si>
 </sst>
 </file>
@@ -457,7 +463,7 @@
   <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1168,73 +1174,83 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B21" t="str">
         <f>CONCATENATE(B3,",",C3,",",D3,",",E3,",",F3,",",G3,",",H3,",",I3,",",J3,",",K3,",",L3,",",M3,",",N3,",",O3)</f>
         <v>5,Self,3,4,3,3,3,2,1,2,1,2,4,2</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B22" t="str">
         <f t="shared" ref="B22:B33" si="0">CONCATENATE(B4,",",C4,",",D4,",",E4,",",F4,",",G4,",",H4,",",I4,",",J4,",",K4,",",L4,",",M4,",",N4,",",O4)</f>
         <v>5,3,Self,3,2,2,4,2,1,3,1,2,4,1</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B23" t="str">
         <f t="shared" si="0"/>
         <v>4,4,3,Self,4,3,1,1,1,1,1,1,2,1</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B24" t="str">
         <f t="shared" si="0"/>
         <v>5,3,2,4,Self,4,2,4,3,2,1,2,4,2</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B25" t="str">
         <f t="shared" si="0"/>
         <v>5,3,2,3,4,Self,2,4,4,2,1,2,4,2</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B26" t="str">
         <f t="shared" si="0"/>
         <v>3,3,4,1,2,2,Self,2,2,2,1,2,2,3</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B27" t="str">
         <f t="shared" si="0"/>
         <v>2,2,2,1,4,4,2,Self,4,3,5,3,2,4</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B28" t="str">
         <f t="shared" si="0"/>
         <v>3,1,1,1,3,4,2,4,Self,2,1,3,4,3</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B29" t="str">
         <f t="shared" si="0"/>
         <v>1,2,3,1,2,2,2,3,2,Self,3,3,3,3</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B30" t="str">
         <f t="shared" si="0"/>
         <v>1,1,1,1,1,1,1,5,1,3,Self,2,3,2</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B31" t="str">
         <f t="shared" si="0"/>
         <v>2,2,2,1,2,2,2,3,3,3,2,Self,3,4</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B32" t="str">
         <f t="shared" si="0"/>
         <v>2,4,4,2,4,4,2,2,4,3,3,3,Self,2</v>

--- a/documentation/Activity Relationship table.xlsx
+++ b/documentation/Activity Relationship table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tud365-my.sharepoint.com/personal/serenst_tudelft_nl/Documents/spatial computing architecture/CDS-Project/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="404" documentId="8_{2C3C803F-6009-4E79-96C0-82548CC543AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4223147-1ABA-4809-BFAE-8A4E657B6358}"/>
+  <xr:revisionPtr revIDLastSave="457" documentId="8_{2C3C803F-6009-4E79-96C0-82548CC543AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4DE78F1-E702-4913-9C8D-B0890E92B61E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{69C57B10-3CF6-41E4-B6AD-BBD6308DA5D7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
   <si>
     <t>Starter houses</t>
   </si>
@@ -101,7 +101,7 @@
     <t>living room</t>
   </si>
   <si>
-    <t>technische ruimte</t>
+    <t>Living room</t>
   </si>
 </sst>
 </file>
@@ -157,10 +157,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -460,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D40333D7-3B21-4950-BD3A-61315E73F84F}">
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -472,7 +468,7 @@
     <col min="2" max="15" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
@@ -515,8 +511,11 @@
       <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -562,8 +561,11 @@
       <c r="O2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -609,8 +611,11 @@
       <c r="O3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -656,8 +661,11 @@
       <c r="O4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -703,8 +711,11 @@
       <c r="O5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -750,8 +761,11 @@
       <c r="O6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -797,8 +811,11 @@
       <c r="O7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -844,8 +861,11 @@
       <c r="O8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -891,8 +911,11 @@
       <c r="O9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -938,8 +961,11 @@
       <c r="O10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -985,8 +1011,11 @@
       <c r="O11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1032,8 +1061,11 @@
       <c r="O12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1079,8 +1111,11 @@
       <c r="O13">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1126,8 +1161,11 @@
       <c r="O14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1173,93 +1211,148 @@
       <c r="O15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>2</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="str">
+        <f>CONCATENATE(B2,",",C2,",",D2,",",E2,",",F2,",",G2,",",H2,",",I2,",",J2,",",K2,",",L2,",",M2,",",N2,",",O2,",",P2)</f>
+        <v>self,5,5,4,5,5,3,2,3,1,1,2,2,1,3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" t="str">
-        <f>CONCATENATE(B3,",",C3,",",D3,",",E3,",",F3,",",G3,",",H3,",",I3,",",J3,",",K3,",",L3,",",M3,",",N3,",",O3)</f>
-        <v>5,Self,3,4,3,3,3,2,1,2,1,2,4,2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <f>CONCATENATE(B3,",",C3,",",D3,",",E3,",",F3,",",G3,",",H3,",",I3,",",J3,",",K3,",",L3,",",M3,",",N3,",",O3,",",P3)</f>
+        <v>5,Self,3,4,3,3,3,2,1,2,1,2,4,2,5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" t="str">
-        <f t="shared" ref="B22:B33" si="0">CONCATENATE(B4,",",C4,",",D4,",",E4,",",F4,",",G4,",",H4,",",I4,",",J4,",",K4,",",L4,",",M4,",",N4,",",O4)</f>
-        <v>5,3,Self,3,2,2,4,2,1,3,1,2,4,1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+        <f>CONCATENATE(B4,",",C4,",",D4,",",E4,",",F4,",",G4,",",H4,",",I4,",",J4,",",K4,",",L4,",",M4,",",N4,",",O4,",",P4)</f>
+        <v>5,3,Self,3,2,2,4,2,1,3,1,2,4,1,5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" t="str">
-        <f t="shared" si="0"/>
-        <v>4,4,3,Self,4,3,1,1,1,1,1,1,2,1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+        <f>CONCATENATE(B5,",",C5,",",D5,",",E5,",",F5,",",G5,",",H5,",",I5,",",J5,",",K5,",",L5,",",M5,",",N5,",",O5,",",P5)</f>
+        <v>4,4,3,Self,4,3,1,1,1,1,1,1,2,1,2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" t="str">
-        <f t="shared" si="0"/>
-        <v>5,3,2,4,Self,4,2,4,3,2,1,2,4,2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+        <f>CONCATENATE(B6,",",C6,",",D6,",",E6,",",F6,",",G6,",",H6,",",I6,",",J6,",",K6,",",L6,",",M6,",",N6,",",O6,",",P6)</f>
+        <v>5,3,2,4,Self,4,2,4,3,2,1,2,4,2,5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" t="str">
-        <f t="shared" si="0"/>
-        <v>5,3,2,3,4,Self,2,4,4,2,1,2,4,2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+        <f>CONCATENATE(B7,",",C7,",",D7,",",E7,",",F7,",",G7,",",H7,",",I7,",",J7,",",K7,",",L7,",",M7,",",N7,",",O7,",",P7)</f>
+        <v>5,3,2,3,4,Self,2,4,4,2,1,2,4,2,5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" t="str">
-        <f t="shared" si="0"/>
-        <v>3,3,4,1,2,2,Self,2,2,2,1,2,2,3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+        <f>CONCATENATE(B8,",",C8,",",D8,",",E8,",",F8,",",G8,",",H8,",",I8,",",J8,",",K8,",",L8,",",M8,",",N8,",",O8,",",P8)</f>
+        <v>3,3,4,1,2,2,Self,2,2,2,1,2,2,3,3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" t="str">
-        <f t="shared" si="0"/>
-        <v>2,2,2,1,4,4,2,Self,4,3,5,3,2,4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+        <f>CONCATENATE(B9,",",C9,",",D9,",",E9,",",F9,",",G9,",",H9,",",I9,",",J9,",",K9,",",L9,",",M9,",",N9,",",O9,",",P9)</f>
+        <v>2,2,2,1,4,4,2,Self,4,3,5,3,2,4,1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" t="str">
-        <f t="shared" si="0"/>
-        <v>3,1,1,1,3,4,2,4,Self,2,1,3,4,3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+        <f>CONCATENATE(B10,",",C10,",",D10,",",E10,",",F10,",",G10,",",H10,",",I10,",",J10,",",K10,",",L10,",",M10,",",N10,",",O10,",",P10)</f>
+        <v>3,1,1,1,3,4,2,4,Self,2,1,3,4,3,1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" t="str">
-        <f t="shared" si="0"/>
-        <v>1,2,3,1,2,2,2,3,2,Self,3,3,3,3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+        <f>CONCATENATE(B11,",",C11,",",D11,",",E11,",",F11,",",G11,",",H11,",",I11,",",J11,",",K11,",",L11,",",M11,",",N11,",",O11,",",P11)</f>
+        <v>1,2,3,1,2,2,2,3,2,Self,3,3,3,3,1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" t="str">
-        <f t="shared" si="0"/>
-        <v>1,1,1,1,1,1,1,5,1,3,Self,2,3,2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+        <f>CONCATENATE(B12,",",C12,",",D12,",",E12,",",F12,",",G12,",",H12,",",I12,",",J12,",",K12,",",L12,",",M12,",",N12,",",O12,",",P12)</f>
+        <v>1,1,1,1,1,1,1,5,1,3,Self,2,3,2,1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" t="str">
-        <f t="shared" si="0"/>
-        <v>2,2,2,1,2,2,2,3,3,3,2,Self,3,4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+        <f>CONCATENATE(B13,",",C13,",",D13,",",E13,",",F13,",",G13,",",H13,",",I13,",",J13,",",K13,",",L13,",",M13,",",N13,",",O13,",",P13)</f>
+        <v>2,2,2,1,2,2,2,3,3,3,2,Self,3,4,1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" t="str">
-        <f t="shared" si="0"/>
-        <v>2,4,4,2,4,4,2,2,4,3,3,3,Self,2</v>
+        <f>CONCATENATE(B14,",",C14,",",D14,",",E14,",",F14,",",G14,",",H14,",",I14,",",J14,",",K14,",",L14,",",M14,",",N14,",",O14,",",P14)</f>
+        <v>2,4,4,2,4,4,2,2,4,3,3,3,Self,2,2</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" t="str">
-        <f t="shared" si="0"/>
-        <v>1,2,1,1,2,2,3,4,3,3,2,4,2,Self</v>
+        <f>CONCATENATE(B15,",",C15,",",D15,",",E15,",",F15,",",G15,",",H15,",",I15,",",J15,",",K15,",",L15,",",M15,",",N15,",",O15,",",P15)</f>
+        <v>1,2,1,1,2,2,3,4,3,3,2,4,2,Self,1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" t="str">
+        <f>CONCATENATE(B16,",",C16,",",D16,",",E16,",",F16,",",G16,",",H16,",",I16,",",J16,",",K16,",",L16,",",M16,",",N16,",",O16,",",P16)</f>
+        <v>3,5,5,2,5,5,3,1,1,1,1,1,2,1,Self</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
